--- a/medicine/Mort/Peine_de_mort_en_Italie/Peine_de_mort_en_Italie.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Italie/Peine_de_mort_en_Italie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La peine de mort en Italie a été abolie en 1889 puis réintroduite pour certains crimes durant le régime fasciste, en 1926.
-La dernière exécution en Italie remonte à mars 1947. En 1947, la Constitution abolit la peine de mort pour les crimes de droit commun  en temps de paix[1]. L'exception constitutionnelle pour les cas prévus par les lois militaires en temps de guerre a été abolie par une loi le 5 octobre 1994, et sa mention a été effacée de la constitution en 2007.
+La dernière exécution en Italie remonte à mars 1947. En 1947, la Constitution abolit la peine de mort pour les crimes de droit commun  en temps de paix. L'exception constitutionnelle pour les cas prévus par les lois militaires en temps de guerre a été abolie par une loi le 5 octobre 1994, et sa mention a été effacée de la constitution en 2007.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Situation actuelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aujourd'hui l'Italie est signataire de divers traités interdisant la peine de mort, notamment :
 Les protocoles no 6 et 13 de la Convention européenne des droits de l'homme, relatif à l'abolition de la peine de mort en toutes circonstances ;
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
